--- a/RAFT-adolescents/instructions.xlsx
+++ b/RAFT-adolescents/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camillejohnston/Documents/GitHub/IMPACT-task/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bellamoger/Documents/SPARK/RAFT-adolescents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D2CB25-853F-1149-B1BB-1013B9E0F3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3398F454-4864-1C4C-90EF-23DE7008F937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="500" windowWidth="26760" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>index</t>
   </si>
@@ -117,91 +117,86 @@
 Press the button under your right pointer finger when you feel ready to start.</t>
   </si>
   <si>
-    <t>In this task, you will see two doors on the screen.
-If the screen has a GREEN border, you need to guess which door you think contains a PRIZE.
-Press with your left pointer finger to select the door on the LEFT, and with your right pointer finger to select the door on the RIGHT.
-If the door you chose contains a $2 prize, you will see a green circle. If the door you chose contains nothing, you will see an empty white circle.
-Each door may contain a prize or nothing, or both doors may contain a prize or nothing.
-Press the button under your left pointer finger to continue.</t>
+    <t>Hello! This is the memory test for the Peer Feedback Game. 
+Like you just practiced, press with your LEFT fingers to RECALL feedback, and press with your RIGHT fingers to PREDICT feedback.</t>
+  </si>
+  <si>
+    <t>Hello! This is the memory test for the Door Feedback Game. 
+Like you just practiced, press with your LEFT fingers to RECALL feedback, and press with your RIGHT fingers to PREDICT feedback.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello! This is a PRACTICE for the Peer Feedback Game. 
+For this game, you will use the buttons under your left and right pointer fingers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello! This is a PRACTICE for the Door Feedback Game. 
+For this game, you will use the buttons under your left and right pointer fingers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello! This is the Peer Feedback Game.
+For this game, you will use the buttons under your left and right pointer fingers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello! This is the Door Feedback Game. 
+For this game, you will use the buttons under your left and right pointer fingers. </t>
+  </si>
+  <si>
+    <t>Hello! This is the memory test for the Door Feedback Game. 
+Like you just practiced, press with your LEFT fingers to PREDICT feedback, and press with your RIGHT fingers to RECALL feedback.</t>
+  </si>
+  <si>
+    <t>Hello! This is the memory test for the Peer Feedback Game. 
+Like you just practiced, press with your LEFT fingers to PREDICT feedback, and press with your RIGHT fingers to RECALL feedback.</t>
+  </si>
+  <si>
+    <t>Hello! This is a PRACTICE for the next part of the Door Feedback Game.
+For this task, you will use 3 buttons from each hand (pointer, middle, and ring fingers).</t>
+  </si>
+  <si>
+    <t>Hello! This is a PRACTICE for the next part of the Peer Feedback Game. 
+For this task, you will use 3 buttons from each hand (pointer, middle, and ring fingers).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Press the button under your right pointer finger when you feel ready to start.</t>
+  </si>
+  <si>
+    <t>Press the button under your right pointer finger when you feel ready to start.</t>
   </si>
   <si>
     <t>In this task, you will see two peers on the screen.
-If the screen has a GREEN border, you need to guess which peer you think LIKED you based on your photo.
+GREEN border = guess which peer you think LIKED you based on your photo.
 Press with your left pointer finger to select the peer on the LEFT, and with your right pointer finger to select the peer on the RIGHT.
-If the peer you chose liked you, you will see a green circle. If the peer you chose did not get around to rating you, you will see an empty white circle.
+Green CIRCLE = peer you chose liked you. Empty CIRCLE = peer you chose did not get around to rating you.
 Each peer may have liked or not rated you, or both peers may have liked or not rated you.
 Press the button under your left pointer finger to continue.</t>
   </si>
   <si>
-    <t>If the screen has a RED border, you need to guess which door you think contains a LOSS.
+    <t>In this task, you will see two doors on the screen.
+GREEN border = guess which door you think contains a PRIZE.
 Press with your left pointer finger to select the door on the LEFT, and with your right pointer finger to select the door on the RIGHT.
-If the door you chose contains a $1 loss, you will see a red circle. If the door you chose contains nothing, you will see an empty white circle.
+Green CIRCLE = door has a $2 prize. 
+Empty white CIRCLE = has nothing.   
+Both doors may have a prize, nothing, or one of each.
+Press the button under your left pointer finger to continue.</t>
+  </si>
+  <si>
+    <t>Press the button under your left pointer finger ONCE INSTRUCTED.</t>
+  </si>
+  <si>
+    <t>RED border = need to guess which door you think contains a LOSS.
+Press with your left pointer finger to select the door on the LEFT, and with your right pointer finger to select the door on the RIGHT.
+Red CIRCLE = door has a $1 loss.
+Empty CIRCLE = has nothing. 
 Each door may contain a loss or nothing, or both doors may contain a loss or nothing.
-At the end of the visit, we will select one round and add or subtract it from your total bonus.
 Press the button under your right pointer finger when you feel ready to start.</t>
   </si>
   <si>
-    <t>If the screen has a RED border, you need to guess which peer you think DISLIKED you based on your photo.
-Press with your left pointer finger to select the peer on the LEFT, and with your right pointer finger to select the peer on the RIGHT.
-If the peer you chose disliked you, you will see a red circle. If the peer you chose did not get around to rating you, you will see an empty white circle.
+    <t>RED border = guess which peer you think DISLIKED you based on your photo.
+Press with your left pointer finger to select the peer on your LEFT, and with your right pointer finger to select the peer on your RIGHT.
+Red CIRCLE = peer you chose disliked you. Empty CIRCLE = peer you chose did not get around to rating you.
 Each peer may have disliked or not rated you, or both peers may have disliked or not rated you.
 Press the button under your right pointer finger when you feel ready to start.</t>
-  </si>
-  <si>
-    <t>If the screen has a RED border, you need to guess which door you think contains a LOSS.
-Press with your left pointer finger to select the door on the LEFT, and with your right pointer finger to select the door on the RIGHT.
-If the door you chose contains a $1 loss, you will see a red circle. If the door you chose contains nothing, you will see an empty white circle.
-Each door may contain a loss or nothing, or both doors may contain a loss or nothing.
-Remember that this is just a practice, these outcomes are based on another participant's choices and will not affect your earnings.
-Press the button under your right pointer finger when you feel ready to start.</t>
-  </si>
-  <si>
-    <t>If the screen has a RED border, you need to guess which peer you think DISLIKED you based on your photo.
-Press with your left pointer finger to select the peer on the LEFT, and with your right pointer finger to select the peer on the RIGHT.
-If the peer you chose disliked you, you will see a red circle. If the peer you chose did not get around to rating you, you will see an empty white circle.
-Each peer may have disliked or not rated you, or both peers may have disliked or not rated you.
-Remember that this is just a practice, these outcomes are based on another participant's choices and ratings from peers.
-Press the button under your right pointer finger when you feel ready to start.</t>
-  </si>
-  <si>
-    <t>Hello! This is the memory test for the Peer Feedback Game. 
-Like you just practiced, press with your LEFT fingers to RECALL feedback, and press with your RIGHT fingers to PREDICT feedback.</t>
-  </si>
-  <si>
-    <t>Hello! This is the memory test for the Door Feedback Game. 
-Like you just practiced, press with your LEFT fingers to RECALL feedback, and press with your RIGHT fingers to PREDICT feedback.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello! This is a PRACTICE for the Peer Feedback Game. 
-For this game, you will use the buttons under your left and right pointer fingers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello! This is a PRACTICE for the Door Feedback Game. 
-For this game, you will use the buttons under your left and right pointer fingers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello! This is the Peer Feedback Game.
-For this game, you will use the buttons under your left and right pointer fingers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello! This is the Door Feedback Game. 
-For this game, you will use the buttons under your left and right pointer fingers. </t>
-  </si>
-  <si>
-    <t>Hello! This is the memory test for the Door Feedback Game. 
-Like you just practiced, press with your LEFT fingers to PREDICT feedback, and press with your RIGHT fingers to RECALL feedback.</t>
-  </si>
-  <si>
-    <t>Hello! This is the memory test for the Peer Feedback Game. 
-Like you just practiced, press with your LEFT fingers to PREDICT feedback, and press with your RIGHT fingers to RECALL feedback.</t>
-  </si>
-  <si>
-    <t>Hello! This is a PRACTICE for the next part of the Door Feedback Game.
-For this task, you will use 3 buttons from each hand (pointer, middle, and ring fingers).</t>
-  </si>
-  <si>
-    <t>Hello! This is a PRACTICE for the next part of the Peer Feedback Game. 
-For this task, you will use 3 buttons from each hand (pointer, middle, and ring fingers).</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1046,8 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1105,40 +1101,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
@@ -1146,16 +1142,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1176,16 +1172,16 @@
     </row>
     <row r="4" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>20</v>

--- a/RAFT-adolescents/instructions.xlsx
+++ b/RAFT-adolescents/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bellamoger/Documents/SPARK/RAFT-adolescents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3398F454-4864-1C4C-90EF-23DE7008F937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC79A834-E429-B84E-B179-5C7B92F85FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9000" yWindow="500" windowWidth="26760" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,13 +157,6 @@
 For this task, you will use 3 buttons from each hand (pointer, middle, and ring fingers).</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Press the button under your right pointer finger when you feel ready to start.</t>
-  </si>
-  <si>
-    <t>Press the button under your right pointer finger when you feel ready to start.</t>
-  </si>
-  <si>
     <t>In this task, you will see two peers on the screen.
 GREEN border = guess which peer you think LIKED you based on your photo.
 Press with your left pointer finger to select the peer on the LEFT, and with your right pointer finger to select the peer on the RIGHT.
@@ -197,6 +190,13 @@
 Red CIRCLE = peer you chose disliked you. Empty CIRCLE = peer you chose did not get around to rating you.
 Each peer may have disliked or not rated you, or both peers may have disliked or not rated you.
 Press the button under your right pointer finger when you feel ready to start.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Press the button under your right pointer finger ONCE INSTRUCTED.</t>
+  </si>
+  <si>
+    <t>Press the button under your right pointer finger ONCE INSTRUCTED.</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1142,16 +1142,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1172,16 +1172,16 @@
     </row>
     <row r="4" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>20</v>

--- a/RAFT-adolescents/instructions.xlsx
+++ b/RAFT-adolescents/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bellamoger/Documents/SPARK/RAFT-adolescents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC79A834-E429-B84E-B179-5C7B92F85FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D248E95E-9B0C-8C4B-8110-06B1A333FE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="500" windowWidth="26760" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="500" windowWidth="26760" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
@@ -1045,9 +1045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/RAFT-adolescents/instructions.xlsx
+++ b/RAFT-adolescents/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bellamoger/Documents/SPARK/RAFT-adolescents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D248E95E-9B0C-8C4B-8110-06B1A333FE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86AD61B-A1A1-1C4A-8563-DAEB9C60F3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="500" windowWidth="26760" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="500" windowWidth="26760" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
@@ -1045,9 +1045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
